--- a/Project Draft.xlsx
+++ b/Project Draft.xlsx
@@ -9,52 +9,55 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="685"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Professor" sheetId="1" r:id="rId1"/>
     <sheet name="Input_Course" sheetId="2" r:id="rId2"/>
-    <sheet name="Solver_Professor" sheetId="6" r:id="rId3"/>
-    <sheet name="Solver_Course" sheetId="7" r:id="rId4"/>
-    <sheet name="Output_Grid" sheetId="4" r:id="rId5"/>
+    <sheet name="Block_Info" sheetId="9" r:id="rId3"/>
+    <sheet name="Solver_Professor" sheetId="6" r:id="rId4"/>
+    <sheet name="Solver_Course" sheetId="7" r:id="rId5"/>
+    <sheet name="Solution Data" sheetId="8" r:id="rId6"/>
+    <sheet name="Output_Grid" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Solver_Professor!$B$17:$J$21</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Solver_Professor!$B$17:$J$21</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Solver_Professor!$B$27:$J$27</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Solver_Professor!$E$24</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Solver_Professor!$B$22</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">5</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">binary</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0.75</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Block_Info!$A$1:$D$45</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Solver_Professor!$B$17:$J$21</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Solver_Professor!$B$17:$J$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Solver_Professor!$B$27:$J$27</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Solver_Professor!$E$24</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Solver_Professor!$B$22</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">binary</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0.75</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -361,7 +364,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculated Session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -543,6 +570,60 @@
   </si>
   <si>
     <t>Solution:</t>
+  </si>
+  <si>
+    <t>Class ID</t>
+  </si>
+  <si>
+    <t>Block ID</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>TimeSlot</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -715,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -741,6 +822,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,9 +1106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1246,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,11 +1259,9 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1224,14 +1304,8 @@
       <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;" "&amp;C2</f>
         <v>1000 1000</v>
@@ -1243,7 +1317,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A10" si="0">B3&amp;" "&amp;C3</f>
         <v>1000 2000</v>
@@ -1255,7 +1329,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>1000 3000</v>
@@ -1267,7 +1341,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>2000 1000</v>
@@ -1279,7 +1353,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>2000 2000</v>
@@ -1291,7 +1365,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>3000 1000</v>
@@ -1303,7 +1377,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>4000 1000</v>
@@ -1315,7 +1389,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>5000 1000</v>
@@ -1327,7 +1401,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>5000 2000</v>
@@ -1347,9 +1421,931 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.70138888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.70138888888888884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0.70138888888888884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.70138888888888884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0.70138888888888884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0.80555555555555547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0.80555555555555547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0.80555555555555547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0.80555555555555547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0.8125</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0.90972222222222221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="23">
+        <v>0.8125</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0.90972222222222221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.8125</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0.90972222222222221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0.8125</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0.90972222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2096,18 +3092,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2122,4 +3106,116 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project Draft.xlsx
+++ b/Project Draft.xlsx
@@ -22,15 +22,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Block_Info!$A$1:$D$45</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Solver_Professor!$B$17:$J$21</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Solver_Professor!$B$16:$J$20</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Solver_Professor!$B$17:$J$21</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Solver_Professor!$B$27:$J$27</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Solver_Professor!$E$24</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Solver_Professor!$B$16:$J$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Solver_Professor!$B$26:$J$26</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Solver_Professor!$E$23</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
@@ -39,7 +39,7 @@
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Solver_Professor!$B$22</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Solver_Professor!$B$21</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
@@ -192,7 +192,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4 digits</t>
+          <t>CS+3 digits string</t>
         </r>
       </text>
     </comment>
@@ -206,7 +206,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4 digits</t>
+          <t>3 digits string</t>
         </r>
       </text>
     </comment>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -497,18 +497,6 @@
     <t>E, F</t>
   </si>
   <si>
-    <t>1000 1000</t>
-  </si>
-  <si>
-    <t>1000 2000</t>
-  </si>
-  <si>
-    <t>1000 3000</t>
-  </si>
-  <si>
-    <t>2000 1000</t>
-  </si>
-  <si>
     <t>G, H</t>
   </si>
   <si>
@@ -521,24 +509,9 @@
     <t>F</t>
   </si>
   <si>
-    <t>3000 1000</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>2000 2000</t>
-  </si>
-  <si>
-    <t>4000 1000</t>
-  </si>
-  <si>
-    <t>5000 1000</t>
-  </si>
-  <si>
-    <t>5000 2000</t>
-  </si>
-  <si>
     <t>Preference</t>
   </si>
   <si>
@@ -569,15 +542,9 @@
     <t>3. Each course has one and only one professor</t>
   </si>
   <si>
-    <t>Solution:</t>
-  </si>
-  <si>
     <t>Class ID</t>
   </si>
   <si>
-    <t>Block ID</t>
-  </si>
-  <si>
     <t>Session</t>
   </si>
   <si>
@@ -624,13 +591,67 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>CS100</t>
+  </si>
+  <si>
+    <t>CS200</t>
+  </si>
+  <si>
+    <t>CS300</t>
+  </si>
+  <si>
+    <t>CS400</t>
+  </si>
+  <si>
+    <t>CS500</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>CS100 100</t>
+  </si>
+  <si>
+    <t>CS100 200</t>
+  </si>
+  <si>
+    <t>CS100 300</t>
+  </si>
+  <si>
+    <t>CS300 100</t>
+  </si>
+  <si>
+    <t>CS200 100</t>
+  </si>
+  <si>
+    <t>CS200 200</t>
+  </si>
+  <si>
+    <t>CS400 100</t>
+  </si>
+  <si>
+    <t>CS500 100</t>
+  </si>
+  <si>
+    <t>CS500 200</t>
+  </si>
+  <si>
+    <t>Block</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +686,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +708,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -791,12 +832,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -808,21 +862,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,19 +1202,19 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,16 +1222,16 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,50 +1239,50 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1250,12 +1309,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1263,9 +1322,9 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -1308,109 +1367,109 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;" "&amp;C2</f>
-        <v>1000 1000</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
+        <v>CS100 100</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A10" si="0">B3&amp;" "&amp;C3</f>
-        <v>1000 2000</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
+        <v>CS100 200</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>1000 3000</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>3000</v>
+        <v>CS100 300</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>2000 1000</v>
-      </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
+        <v>CS200 100</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>2000 2000</v>
-      </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
+        <v>CS200 200</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>3000 1000</v>
-      </c>
-      <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
+        <v>CS300 100</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>4000 1000</v>
-      </c>
-      <c r="B8">
-        <v>4000</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
+        <v>CS400 100</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>5000 1000</v>
-      </c>
-      <c r="B9">
-        <v>5000</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
+        <v>CS500 100</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>5000 2000</v>
-      </c>
-      <c r="B10">
-        <v>5000</v>
-      </c>
-      <c r="C10">
-        <v>2000</v>
+        <v>CS500 200</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1430,28 +1489,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,18 +1518,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="23">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="18">
         <v>0.3888888888888889</v>
       </c>
     </row>
@@ -1479,18 +1538,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="23">
+        <v>45</v>
+      </c>
+      <c r="E3" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="18">
         <v>0.3888888888888889</v>
       </c>
     </row>
@@ -1499,18 +1558,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="23">
+        <v>45</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="18">
         <v>0.3888888888888889</v>
       </c>
     </row>
@@ -1519,18 +1578,18 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="23">
+        <v>45</v>
+      </c>
+      <c r="E5" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="18">
         <v>0.3888888888888889</v>
       </c>
     </row>
@@ -1539,18 +1598,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="23">
+        <v>45</v>
+      </c>
+      <c r="E6" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="18">
         <v>0.3888888888888889</v>
       </c>
     </row>
@@ -1559,18 +1618,18 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="23">
+        <v>46</v>
+      </c>
+      <c r="E7" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="18">
         <v>0.4513888888888889</v>
       </c>
     </row>
@@ -1579,18 +1638,18 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="23">
+        <v>46</v>
+      </c>
+      <c r="E8" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="18">
         <v>0.4513888888888889</v>
       </c>
     </row>
@@ -1599,18 +1658,18 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="23">
+        <v>46</v>
+      </c>
+      <c r="E9" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="18">
         <v>0.4513888888888889</v>
       </c>
     </row>
@@ -1619,18 +1678,18 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="23">
+        <v>46</v>
+      </c>
+      <c r="E10" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="18">
         <v>0.4513888888888889</v>
       </c>
     </row>
@@ -1639,18 +1698,18 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="23">
+        <v>46</v>
+      </c>
+      <c r="E11" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="18">
         <v>0.4513888888888889</v>
       </c>
     </row>
@@ -1659,18 +1718,18 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="23">
+        <v>47</v>
+      </c>
+      <c r="E12" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="18">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -1679,18 +1738,18 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="23">
+        <v>47</v>
+      </c>
+      <c r="E13" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="18">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -1699,18 +1758,18 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="23">
+        <v>47</v>
+      </c>
+      <c r="E14" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="18">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -1719,18 +1778,18 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="23">
+        <v>47</v>
+      </c>
+      <c r="E15" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="18">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -1739,18 +1798,18 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="23">
+        <v>48</v>
+      </c>
+      <c r="E16" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="18">
         <v>0.57638888888888895</v>
       </c>
     </row>
@@ -1759,18 +1818,18 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="23">
+        <v>48</v>
+      </c>
+      <c r="E17" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="18">
         <v>0.57638888888888895</v>
       </c>
     </row>
@@ -1779,18 +1838,18 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="23">
+        <v>48</v>
+      </c>
+      <c r="E18" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="18">
         <v>0.57638888888888895</v>
       </c>
     </row>
@@ -1799,18 +1858,18 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="23">
+        <v>48</v>
+      </c>
+      <c r="E19" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="18">
         <v>0.57638888888888895</v>
       </c>
     </row>
@@ -1819,18 +1878,18 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="23">
+        <v>47</v>
+      </c>
+      <c r="E20" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="18">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -1839,18 +1898,18 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="23">
+        <v>48</v>
+      </c>
+      <c r="E21" s="18">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="18">
         <v>0.57638888888888895</v>
       </c>
     </row>
@@ -1859,18 +1918,18 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="23">
+        <v>49</v>
+      </c>
+      <c r="E22" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="18">
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -1879,18 +1938,18 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="23">
+        <v>49</v>
+      </c>
+      <c r="E23" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="18">
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -1899,18 +1958,18 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="23">
+        <v>27</v>
+      </c>
+      <c r="E24" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -1919,18 +1978,18 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="23">
+        <v>27</v>
+      </c>
+      <c r="E25" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -1939,18 +1998,18 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="23">
+        <v>27</v>
+      </c>
+      <c r="E26" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -1959,18 +2018,18 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="23">
+        <v>27</v>
+      </c>
+      <c r="E27" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -1979,18 +2038,18 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="23">
+        <v>42</v>
+      </c>
+      <c r="E28" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -1999,18 +2058,18 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="23">
+        <v>42</v>
+      </c>
+      <c r="E29" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -2019,18 +2078,18 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="23">
+        <v>42</v>
+      </c>
+      <c r="E30" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -2039,18 +2098,18 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="23">
+        <v>42</v>
+      </c>
+      <c r="E31" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -2059,18 +2118,18 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="23">
+        <v>49</v>
+      </c>
+      <c r="E32" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="18">
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -2079,18 +2138,18 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="23">
+        <v>27</v>
+      </c>
+      <c r="E33" s="18">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="18">
         <v>0.70138888888888884</v>
       </c>
     </row>
@@ -2099,18 +2158,18 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="23">
+        <v>50</v>
+      </c>
+      <c r="E34" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -2119,18 +2178,18 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="23">
+        <v>50</v>
+      </c>
+      <c r="E35" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -2139,18 +2198,18 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="23">
+        <v>50</v>
+      </c>
+      <c r="E36" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -2159,18 +2218,18 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="23">
+        <v>50</v>
+      </c>
+      <c r="E37" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="18">
         <v>0.76388888888888884</v>
       </c>
     </row>
@@ -2179,18 +2238,18 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="23">
+      <c r="E38" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="18">
         <v>0.80555555555555547</v>
       </c>
     </row>
@@ -2199,18 +2258,18 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="E39" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="18">
         <v>0.80555555555555547</v>
       </c>
     </row>
@@ -2219,18 +2278,18 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="23">
+      <c r="E40" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="18">
         <v>0.80555555555555547</v>
       </c>
     </row>
@@ -2239,18 +2298,18 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="E41" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="18">
         <v>0.80555555555555547</v>
       </c>
     </row>
@@ -2259,18 +2318,18 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="23">
+        <v>55</v>
+      </c>
+      <c r="E42" s="18">
         <v>0.8125</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="18">
         <v>0.90972222222222221</v>
       </c>
     </row>
@@ -2279,18 +2338,18 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="23">
+        <v>55</v>
+      </c>
+      <c r="E43" s="18">
         <v>0.8125</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="18">
         <v>0.90972222222222221</v>
       </c>
     </row>
@@ -2299,18 +2358,18 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="23">
+        <v>55</v>
+      </c>
+      <c r="E44" s="18">
         <v>0.8125</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="18">
         <v>0.90972222222222221</v>
       </c>
     </row>
@@ -2319,18 +2378,18 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="23">
+        <v>55</v>
+      </c>
+      <c r="E45" s="18">
         <v>0.8125</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="18">
         <v>0.90972222222222221</v>
       </c>
     </row>
@@ -2341,11 +2400,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2353,39 +2410,39 @@
     <col min="2" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -2407,10 +2464,10 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
       <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -2430,10 +2487,10 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
       <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2453,12 +2510,12 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2474,12 +2531,12 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
       <c r="K5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2499,353 +2556,397 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="array" ref="B9:J9">B2:J2/SUM(B2:J2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="array" ref="B10:J10">B3:J3/SUM(B3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="array" ref="B11:J11">B4:J4/SUM(B4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B12" s="11">
+        <f t="array" ref="B12:J12">B5:J5/SUM(B5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B13" s="13">
+        <f t="array" ref="B13:J13">B6:J6/SUM(B6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15">
+        <f>COUNTA(B15:J15)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12">
-        <f t="array" ref="B10:J10">B2:J2/SUM(B2:J2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12">
-        <f t="array" ref="B11:J11">B3:J3/SUM(B3:J3)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="12">
-        <f t="array" ref="B12:J12">B4:J4/SUM(B4:J4)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="12">
-        <f t="array" ref="B13:J13">B5:J5/SUM(B5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="14">
-        <f t="array" ref="B14:J14">B6:J6/SUM(B6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>37</v>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <f>IF(K2="F",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>SUM(B16:J16)*K16</f>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="16">
+        <v>22</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <f>IF(K3="F",1,0)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="16">
+      <c r="L17">
+        <f t="shared" ref="L17:L20" si="0">SUM(B17:J17)*K17</f>
         <v>1</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
-        <f>IF(K2="F",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f>SUM(B17:J17)*K17</f>
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
+        <v>23</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
         <v>1</v>
       </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="21">
-        <f>IF(K3="F",1,0)</f>
+      <c r="I18" s="19">
         <v>1</v>
       </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <f>IF(K4="F",1,0)</f>
+        <v>1</v>
+      </c>
       <c r="L18">
-        <f t="shared" ref="L18:L21" si="0">SUM(B18:J18)*K18</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="16">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
+        <v>24</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="I19" s="16">
+      <c r="F19" s="19">
         <v>1</v>
       </c>
-      <c r="J19" s="17">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21">
-        <f>IF(K4="F",1,0)</f>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <f>IF(K5="F",1,0)</f>
         <v>1</v>
       </c>
       <c r="L19">
@@ -2853,39 +2954,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="16">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21">
-        <f>IF(K5="F",1,0)</f>
+      <c r="K20" s="16">
+        <f>IF(K6="F",1,0)</f>
         <v>0</v>
       </c>
       <c r="L20">
@@ -2893,202 +2994,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="18">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0</v>
-      </c>
-      <c r="J21" s="19">
-        <v>1</v>
-      </c>
-      <c r="K21" s="21">
-        <f>IF(K6="F",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <f>SUMPRODUCT(B17:J21,B10:J14)</f>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <f>SUMPRODUCT(B16:J20,B9:J13)</f>
         <v>3.1</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SUM(L16:L20)/L15</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
       <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="2">
-        <f>SUM(L17:L21)</f>
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0.75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>SUM(B17:B21)</f>
+      <c r="B26">
+        <f>SUM(B16:B20)</f>
         <v>1</v>
       </c>
-      <c r="C27">
-        <f t="shared" ref="C27:J27" si="1">SUM(C17:C21)</f>
+      <c r="C26">
+        <f t="shared" ref="C26:J26" si="1">SUM(C16:C20)</f>
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J27">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3114,14 +3095,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -3132,7 +3116,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -3140,7 +3124,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -3148,7 +3132,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -3156,23 +3140,23 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -3180,7 +3164,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -3188,7 +3172,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -3196,10 +3180,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
